--- a/biology/Botanique/Docteur_Marjolin/Docteur_Marjolin.xlsx
+++ b/biology/Botanique/Docteur_Marjolin/Docteur_Marjolin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Docteur Marjolin' est un cultivar de rosier mousseux obtenu en 1860 par la maison française Robert et Moreau. Il rend hommage au chirurgien Jean-Nicolas Marjolin (1780-1850).
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson érigé au feuillage dense et vert clair pouvant s'élever à 120 cm. Ses fleurs parfumées, pleines et doubles (17-25 pétales), sont d'un rose franc, de forme en coupe, les pétales ayant un revers plus pâle. La floraison est légèrement remontante[1]. Les calices sont recouverts de mousse. 
-Ce rosier supporte des hivers à -20° C[2].  
-On peut admirer cette variété notamment à l'Europa-Rosarium de Sangerhausen en Allemagne. Il est toujours commercialisé dans nombre de catalogues internationaux, notamment en France[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson érigé au feuillage dense et vert clair pouvant s'élever à 120 cm. Ses fleurs parfumées, pleines et doubles (17-25 pétales), sont d'un rose franc, de forme en coupe, les pétales ayant un revers plus pâle. La floraison est légèrement remontante. Les calices sont recouverts de mousse. 
+Ce rosier supporte des hivers à -20° C.  
+On peut admirer cette variété notamment à l'Europa-Rosarium de Sangerhausen en Allemagne. Il est toujours commercialisé dans nombre de catalogues internationaux, notamment en France.
 </t>
         </is>
       </c>
